--- a/03 Adminstration/03 Tidsplan.xlsx
+++ b/03 Adminstration/03 Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk.sharepoint.com/sites/ESD4TnT/Delte dokumenter/General/03 Adminstration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil\Documents\GitHub\ESD_P5\03 Adminstration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{9D1ABF34-9D50-450F-BB74-761F3BB56CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B14D414-AF08-48B7-B068-CE01E28542E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C2031B-FD17-4CD3-B0B0-293927B82F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
   </bookViews>
   <sheets>
     <sheet name="Ny" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Plan</t>
   </si>
@@ -62,54 +62,6 @@
     <t>Klargøring til eksamen</t>
   </si>
   <si>
-    <t>Reel varighed</t>
-  </si>
-  <si>
-    <t>Uge 7</t>
-  </si>
-  <si>
-    <t>Uge 8</t>
-  </si>
-  <si>
-    <t>Uge 9</t>
-  </si>
-  <si>
-    <t>Uge 10</t>
-  </si>
-  <si>
-    <t>Uge 11</t>
-  </si>
-  <si>
-    <t>Uge 12</t>
-  </si>
-  <si>
-    <t>Uge 13</t>
-  </si>
-  <si>
-    <t>Uge 14</t>
-  </si>
-  <si>
-    <t>Uge 15</t>
-  </si>
-  <si>
-    <t>Uge 16</t>
-  </si>
-  <si>
-    <t>Uge 17</t>
-  </si>
-  <si>
-    <t>Uge 18</t>
-  </si>
-  <si>
-    <t>Uge 19</t>
-  </si>
-  <si>
-    <t>Uge 20</t>
-  </si>
-  <si>
-    <t>Uge 21</t>
-  </si>
-  <si>
     <t>BUFFER</t>
   </si>
   <si>
@@ -119,9 +71,6 @@
     <t>Kravspecifikationer</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Planlagt on time</t>
   </si>
   <si>
@@ -134,10 +83,52 @@
     <t>Revidering e.l.</t>
   </si>
   <si>
-    <t>Antager vi aflevere d. 28 maj</t>
-  </si>
-  <si>
     <t>Påbegyndt</t>
+  </si>
+  <si>
+    <t>Uge 38</t>
+  </si>
+  <si>
+    <t>Uge 39</t>
+  </si>
+  <si>
+    <t>Uge 40</t>
+  </si>
+  <si>
+    <t>Uge 41</t>
+  </si>
+  <si>
+    <t>Uge 42</t>
+  </si>
+  <si>
+    <t>Uge 43</t>
+  </si>
+  <si>
+    <t>Uge 44</t>
+  </si>
+  <si>
+    <t>Uge 45</t>
+  </si>
+  <si>
+    <t>Uge 46</t>
+  </si>
+  <si>
+    <t>Uge 47</t>
+  </si>
+  <si>
+    <t>Uge 48</t>
+  </si>
+  <si>
+    <t>Uge 49</t>
+  </si>
+  <si>
+    <t>Uge 50</t>
+  </si>
+  <si>
+    <t>Uge 51</t>
+  </si>
+  <si>
+    <t>Uge 52</t>
   </si>
 </sst>
 </file>
@@ -211,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -235,21 +226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -401,10 +377,90 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -417,7 +473,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -426,172 +482,101 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,12 +594,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -913,565 +894,723 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="20" max="20" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="D1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="E1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="G1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="H1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="I1" s="28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="34"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="34"/>
+    </row>
+    <row r="5" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="34"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="34"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="34"/>
+    </row>
+    <row r="15" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="34"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="34"/>
+    </row>
+    <row r="17" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="18"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="34"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="34"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="18"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="34"/>
+    </row>
+    <row r="19" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="34"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="26"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="34"/>
+    </row>
+    <row r="21" spans="1:17" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="34"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1481,17 +1620,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FE580F2D3026B143BDF291C5137D2DA0" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="cbf9c7ba37e5329923f2631dbd7f57d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9eb01566-652b-4477-b28c-3e66da18d344" xmlns:ns3="1ef46024-2ca0-4db1-9ed8-b314520bddf3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51e2ef3359a75a136c9bc01b553e9c72" ns2:_="" ns3:_="">
     <xsd:import namespace="9eb01566-652b-4477-b28c-3e66da18d344"/>
@@ -1698,6 +1826,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9eb01566-652b-4477-b28c-3e66da18d344">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1ef46024-2ca0-4db1-9ed8-b314520bddf3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1708,6 +1847,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED2C824-EE10-4B11-9501-FDAC8E8CEC63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
+    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4288EBCF-420A-4A04-9E3C-0310870484B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="48223c98-16c9-41d7-8092-c9ed2a69b2b9"/>
@@ -1726,25 +1884,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED2C824-EE10-4B11-9501-FDAC8E8CEC63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9eb01566-652b-4477-b28c-3e66da18d344"/>
-    <ds:schemaRef ds:uri="1ef46024-2ca0-4db1-9ed8-b314520bddf3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF982C2-996F-4141-9385-FFB5C146D1F8}">
   <ds:schemaRefs>

--- a/03 Adminstration/03 Tidsplan.xlsx
+++ b/03 Adminstration/03 Tidsplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil\Documents\GitHub\ESD_P5\03 Adminstration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp-cl\Desktop\Uni\5 Semester\P5\GIT\ESD_P5\03 Adminstration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C2031B-FD17-4CD3-B0B0-293927B82F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00CE809-7EA5-4528-AF49-8F3375B61156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69133E36-BD8C-42CB-86D0-28FF962A2138}"/>
   </bookViews>
   <sheets>
     <sheet name="Ny" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Plan</t>
   </si>
@@ -68,24 +68,6 @@
     <t>Løsningsmetode/systemopbygning</t>
   </si>
   <si>
-    <t>Kravspecifikationer</t>
-  </si>
-  <si>
-    <t>Planlagt on time</t>
-  </si>
-  <si>
-    <t>Overskredet deadline</t>
-  </si>
-  <si>
-    <t>Påbegyndt før</t>
-  </si>
-  <si>
-    <t>Revidering e.l.</t>
-  </si>
-  <si>
-    <t>Påbegyndt</t>
-  </si>
-  <si>
     <t>Uge 38</t>
   </si>
   <si>
@@ -128,7 +110,25 @@
     <t>Uge 51</t>
   </si>
   <si>
-    <t>Uge 52</t>
+    <t>Planlagt</t>
+  </si>
+  <si>
+    <t>Arbejde på opgave</t>
+  </si>
+  <si>
+    <t>Aflevering d. 19. december</t>
+  </si>
+  <si>
+    <t>Kravspecifikationer+Test spec</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Påbegyndelse af ugemøder </t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,25 +179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,34 +285,15 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -340,7 +303,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -354,7 +319,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -367,19 +332,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -479,6 +431,32 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -488,11 +466,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,14 +475,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,64 +493,72 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +577,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 Tema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -894,725 +876,651 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="20" max="20" width="42.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="19" max="19" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="I1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="J1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="K1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="L1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="M1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="N1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" ht="4.1500000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="28" t="s">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="34"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="34"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="34"/>
-    </row>
-    <row r="5" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="34"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="34"/>
-    </row>
-    <row r="7" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="34"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="34"/>
-    </row>
-    <row r="9" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="34"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="34"/>
-    </row>
-    <row r="11" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="34"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="34"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="34"/>
-    </row>
-    <row r="15" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="34"/>
-    </row>
-    <row r="17" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="34"/>
-    </row>
-    <row r="19" spans="1:17" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="34"/>
-    </row>
-    <row r="21" spans="1:17" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="34"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
